--- a/data/lit_review_data_FB.xlsx
+++ b/data/lit_review_data_FB.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="301">
   <si>
     <t>id</t>
   </si>
@@ -858,6 +858,66 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/jrsm.1287</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1526</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.9928</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.9934</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.1962328</t>
+  </si>
+  <si>
+    <t>there is a link to author's side with code, but I couldn't find the relevant code there</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.1987920</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.1990768</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.1996378</t>
+  </si>
+  <si>
+    <t>only in a figure</t>
+  </si>
+  <si>
+    <t>I guess they use the non-converged estimate when the method fails to converge</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1371</t>
+  </si>
+  <si>
+    <t>"history plots for runs of the simulation suggested good convergence of both models for all event rates"</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1490</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/met0000386</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/met0000453</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1404</t>
+  </si>
+  <si>
+    <t>"However, convergence rates of NCHGN are rather low, especially so for low values of τ 2 and K; they improve somewhat for larger values of n (Figure A4.4 in the Supporting Information)."</t>
+  </si>
+  <si>
+    <t>reported for some conditions in the appendix</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2022.2071276</t>
   </si>
 </sst>
 </file>
@@ -867,7 +927,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -895,6 +955,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -935,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1016,6 +1081,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2067,9 +2141,7 @@
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="20"/>
-      <c r="AD13" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -2189,9 +2261,7 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="20"/>
-      <c r="AD15" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
@@ -2247,9 +2317,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="20"/>
-      <c r="AD16" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
@@ -2369,9 +2437,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="20"/>
-      <c r="AD18" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
@@ -2391,7 +2457,7 @@
         <v>54</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="13" t="b">
@@ -2423,17 +2489,11 @@
       <c r="W19" s="8"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA19" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="7"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="20"/>
-      <c r="AD19" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
@@ -2553,9 +2613,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="20"/>
-      <c r="AD21" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
@@ -2611,9 +2669,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="20"/>
-      <c r="AD22" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD22" s="7"/>
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
@@ -2743,9 +2799,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="20"/>
-      <c r="AD24" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
@@ -2877,9 +2931,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="20"/>
-      <c r="AD26" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
@@ -4775,7 +4827,9 @@
         <v>115</v>
       </c>
       <c r="U57" s="9"/>
-      <c r="V57" s="8"/>
+      <c r="V57" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="W57" s="8"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="9"/>
@@ -10393,7 +10447,9 @@
       <c r="W149" s="8"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="9"/>
-      <c r="Z149" s="8"/>
+      <c r="Z149" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="AA149" s="7" t="s">
         <v>56</v>
       </c>
@@ -12103,7 +12159,9 @@
       <c r="G178" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H178" s="7"/>
+      <c r="H178" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I178" s="13" t="b">
         <v>0</v>
       </c>
@@ -13329,6 +13387,1141 @@
       <c r="AC199" s="20"/>
       <c r="AD199" s="21"/>
     </row>
+    <row r="200">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K200" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N200" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O200" s="8"/>
+      <c r="P200" s="9"/>
+      <c r="Q200" s="9"/>
+      <c r="R200" s="8"/>
+      <c r="S200" s="8"/>
+      <c r="T200" s="9"/>
+      <c r="U200" s="9"/>
+      <c r="V200" s="8"/>
+      <c r="W200" s="8"/>
+      <c r="X200" s="9"/>
+      <c r="Y200" s="9"/>
+      <c r="Z200" s="8"/>
+      <c r="AA200" s="9"/>
+      <c r="AB200" s="9"/>
+      <c r="AC200" s="20"/>
+      <c r="AD200" s="21"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C201" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="D201" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H201" s="7"/>
+      <c r="I201" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K201" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M201" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N201" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O201" s="8"/>
+      <c r="P201" s="9"/>
+      <c r="Q201" s="9"/>
+      <c r="R201" s="8"/>
+      <c r="S201" s="8"/>
+      <c r="T201" s="9"/>
+      <c r="U201" s="9"/>
+      <c r="V201" s="8"/>
+      <c r="W201" s="8"/>
+      <c r="X201" s="9"/>
+      <c r="Y201" s="9"/>
+      <c r="Z201" s="8"/>
+      <c r="AA201" s="9"/>
+      <c r="AB201" s="9"/>
+      <c r="AC201" s="20"/>
+      <c r="AD201" s="21"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C202" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="D202" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I202" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K202" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M202" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N202" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O202" s="8"/>
+      <c r="P202" s="9"/>
+      <c r="Q202" s="9"/>
+      <c r="R202" s="8"/>
+      <c r="S202" s="8"/>
+      <c r="T202" s="9"/>
+      <c r="U202" s="9"/>
+      <c r="V202" s="8"/>
+      <c r="W202" s="8"/>
+      <c r="X202" s="9"/>
+      <c r="Y202" s="9"/>
+      <c r="Z202" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA202" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB202" s="9"/>
+      <c r="AC202" s="20"/>
+      <c r="AD202" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C203" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="D203" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G203" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I203" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K203" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M203" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N203" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O203" s="8"/>
+      <c r="P203" s="9"/>
+      <c r="Q203" s="9"/>
+      <c r="R203" s="8"/>
+      <c r="S203" s="8"/>
+      <c r="T203" s="9"/>
+      <c r="U203" s="9"/>
+      <c r="V203" s="8"/>
+      <c r="W203" s="8"/>
+      <c r="X203" s="9"/>
+      <c r="Y203" s="9"/>
+      <c r="Z203" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA203" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB203" s="9"/>
+      <c r="AC203" s="20"/>
+      <c r="AD203" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C204" s="27">
+        <v>542.0</v>
+      </c>
+      <c r="D204" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G204" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I204" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K204" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M204" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N204" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O204" s="8"/>
+      <c r="P204" s="9"/>
+      <c r="Q204" s="9"/>
+      <c r="R204" s="8"/>
+      <c r="S204" s="8"/>
+      <c r="T204" s="9"/>
+      <c r="U204" s="9"/>
+      <c r="V204" s="8"/>
+      <c r="W204" s="8"/>
+      <c r="X204" s="9"/>
+      <c r="Y204" s="9"/>
+      <c r="Z204" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA204" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB204" s="9"/>
+      <c r="AC204" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD204" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C205" s="27">
+        <v>542.0</v>
+      </c>
+      <c r="D205" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G205" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I205" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K205" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M205" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N205" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O205" s="8"/>
+      <c r="P205" s="9"/>
+      <c r="Q205" s="9"/>
+      <c r="R205" s="8"/>
+      <c r="S205" s="8"/>
+      <c r="T205" s="9"/>
+      <c r="U205" s="9"/>
+      <c r="V205" s="8"/>
+      <c r="W205" s="8"/>
+      <c r="X205" s="9"/>
+      <c r="Y205" s="9"/>
+      <c r="Z205" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA205" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB205" s="9"/>
+      <c r="AC205" s="20"/>
+      <c r="AD205" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C206" s="27">
+        <v>542.0</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G206" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I206" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K206" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N206" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O206" s="8"/>
+      <c r="P206" s="9"/>
+      <c r="Q206" s="9"/>
+      <c r="R206" s="8"/>
+      <c r="S206" s="8"/>
+      <c r="T206" s="9"/>
+      <c r="U206" s="9"/>
+      <c r="V206" s="8"/>
+      <c r="W206" s="8"/>
+      <c r="X206" s="9"/>
+      <c r="Y206" s="9"/>
+      <c r="Z206" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA206" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB206" s="9"/>
+      <c r="AC206" s="20"/>
+      <c r="AD206" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C207" s="27">
+        <v>542.0</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G207" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I207" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K207" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N207" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O207" s="8"/>
+      <c r="P207" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q207" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="R207" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S207" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="T207" s="9"/>
+      <c r="U207" s="9"/>
+      <c r="V207" s="8"/>
+      <c r="W207" s="8"/>
+      <c r="X207" s="9"/>
+      <c r="Y207" s="9"/>
+      <c r="Z207" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA207" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB207" s="9"/>
+      <c r="AC207" s="20"/>
+      <c r="AD207" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C208" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G208" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I208" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K208" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N208" s="15"/>
+      <c r="O208" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="P208" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q208" s="9"/>
+      <c r="R208" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S208" s="8"/>
+      <c r="T208" s="9"/>
+      <c r="U208" s="9"/>
+      <c r="V208" s="8"/>
+      <c r="W208" s="8"/>
+      <c r="X208" s="9"/>
+      <c r="Y208" s="9"/>
+      <c r="Z208" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA208" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB208" s="9"/>
+      <c r="AC208" s="20"/>
+      <c r="AD208" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C209" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="D209" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I209" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J209" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K209" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M209" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N209" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O209" s="8"/>
+      <c r="P209" s="9"/>
+      <c r="Q209" s="9"/>
+      <c r="R209" s="8"/>
+      <c r="S209" s="8"/>
+      <c r="T209" s="9"/>
+      <c r="U209" s="9"/>
+      <c r="V209" s="8"/>
+      <c r="W209" s="8"/>
+      <c r="X209" s="9"/>
+      <c r="Y209" s="9"/>
+      <c r="Z209" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA209" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB209" s="9"/>
+      <c r="AC209" s="20"/>
+      <c r="AD209" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C210" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="D210" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I210" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K210" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M210" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N210" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O210" s="8"/>
+      <c r="P210" s="9"/>
+      <c r="Q210" s="9"/>
+      <c r="R210" s="8"/>
+      <c r="S210" s="8"/>
+      <c r="T210" s="9"/>
+      <c r="U210" s="9"/>
+      <c r="V210" s="8"/>
+      <c r="W210" s="8"/>
+      <c r="X210" s="9"/>
+      <c r="Y210" s="9"/>
+      <c r="Z210" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA210" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB210" s="9"/>
+      <c r="AC210" s="20"/>
+      <c r="AD210" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C211" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="D211" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G211" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H211" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I211" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K211" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M211" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N211" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O211" s="8"/>
+      <c r="P211" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q211" s="9"/>
+      <c r="R211" s="8"/>
+      <c r="S211" s="8"/>
+      <c r="T211" s="9"/>
+      <c r="U211" s="9"/>
+      <c r="V211" s="8"/>
+      <c r="W211" s="8"/>
+      <c r="X211" s="9"/>
+      <c r="Y211" s="9"/>
+      <c r="Z211" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA211" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB211" s="9"/>
+      <c r="AC211" s="20"/>
+      <c r="AD211" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C212" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="D212" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G212" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I212" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K212" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M212" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N212" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O212" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="P212" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q212" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="R212" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S212" s="8"/>
+      <c r="T212" s="9"/>
+      <c r="U212" s="9"/>
+      <c r="V212" s="8"/>
+      <c r="W212" s="8"/>
+      <c r="X212" s="9"/>
+      <c r="Y212" s="9"/>
+      <c r="Z212" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA212" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB212" s="9"/>
+      <c r="AC212" s="20"/>
+      <c r="AD212" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C213" s="27">
+        <v>544.0</v>
+      </c>
+      <c r="D213" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G213" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H213" s="7"/>
+      <c r="I213" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K213" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M213" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N213" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O213" s="8"/>
+      <c r="P213" s="9"/>
+      <c r="Q213" s="9"/>
+      <c r="R213" s="8"/>
+      <c r="S213" s="8"/>
+      <c r="T213" s="9"/>
+      <c r="U213" s="9"/>
+      <c r="V213" s="8"/>
+      <c r="W213" s="8"/>
+      <c r="X213" s="9"/>
+      <c r="Y213" s="9"/>
+      <c r="Z213" s="8"/>
+      <c r="AA213" s="9"/>
+      <c r="AB213" s="9"/>
+      <c r="AC213" s="20"/>
+      <c r="AD213" s="21"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K214" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M214" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N214" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O214" s="8"/>
+      <c r="P214" s="9"/>
+      <c r="Q214" s="9"/>
+      <c r="R214" s="8"/>
+      <c r="S214" s="8"/>
+      <c r="T214" s="9"/>
+      <c r="U214" s="9"/>
+      <c r="V214" s="8"/>
+      <c r="W214" s="8"/>
+      <c r="X214" s="9"/>
+      <c r="Y214" s="9"/>
+      <c r="Z214" s="8"/>
+      <c r="AA214" s="9"/>
+      <c r="AB214" s="9"/>
+      <c r="AC214" s="20"/>
+      <c r="AD214" s="21"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K215" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M215" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N215" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O215" s="8"/>
+      <c r="P215" s="9"/>
+      <c r="Q215" s="9"/>
+      <c r="R215" s="8"/>
+      <c r="S215" s="8"/>
+      <c r="T215" s="9"/>
+      <c r="U215" s="9"/>
+      <c r="V215" s="8"/>
+      <c r="W215" s="8"/>
+      <c r="X215" s="9"/>
+      <c r="Y215" s="9"/>
+      <c r="Z215" s="8"/>
+      <c r="AA215" s="9"/>
+      <c r="AB215" s="9"/>
+      <c r="AC215" s="20"/>
+      <c r="AD215" s="21"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K216" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M216" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N216" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O216" s="8"/>
+      <c r="P216" s="9"/>
+      <c r="Q216" s="9"/>
+      <c r="R216" s="8"/>
+      <c r="S216" s="8"/>
+      <c r="T216" s="9"/>
+      <c r="U216" s="9"/>
+      <c r="V216" s="8"/>
+      <c r="W216" s="8"/>
+      <c r="X216" s="9"/>
+      <c r="Y216" s="9"/>
+      <c r="Z216" s="8"/>
+      <c r="AA216" s="9"/>
+      <c r="AB216" s="9"/>
+      <c r="AC216" s="20"/>
+      <c r="AD216" s="21"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K217" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M217" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N217" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O217" s="8"/>
+      <c r="P217" s="9"/>
+      <c r="Q217" s="9"/>
+      <c r="R217" s="8"/>
+      <c r="S217" s="8"/>
+      <c r="T217" s="9"/>
+      <c r="U217" s="9"/>
+      <c r="V217" s="8"/>
+      <c r="W217" s="8"/>
+      <c r="X217" s="9"/>
+      <c r="Y217" s="9"/>
+      <c r="Z217" s="8"/>
+      <c r="AA217" s="9"/>
+      <c r="AB217" s="9"/>
+      <c r="AC217" s="20"/>
+      <c r="AD217" s="21"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K218" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M218" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N218" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O218" s="8"/>
+      <c r="P218" s="9"/>
+      <c r="Q218" s="9"/>
+      <c r="R218" s="8"/>
+      <c r="S218" s="8"/>
+      <c r="T218" s="9"/>
+      <c r="U218" s="9"/>
+      <c r="V218" s="8"/>
+      <c r="W218" s="8"/>
+      <c r="X218" s="9"/>
+      <c r="Y218" s="9"/>
+      <c r="Z218" s="8"/>
+      <c r="AA218" s="9"/>
+      <c r="AB218" s="9"/>
+      <c r="AC218" s="20"/>
+      <c r="AD218" s="21"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K219" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M219" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N219" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O219" s="8"/>
+      <c r="P219" s="9"/>
+      <c r="Q219" s="9"/>
+      <c r="R219" s="8"/>
+      <c r="S219" s="8"/>
+      <c r="T219" s="9"/>
+      <c r="U219" s="9"/>
+      <c r="V219" s="8"/>
+      <c r="W219" s="8"/>
+      <c r="X219" s="9"/>
+      <c r="Y219" s="9"/>
+      <c r="Z219" s="8"/>
+      <c r="AA219" s="9"/>
+      <c r="AB219" s="9"/>
+      <c r="AC219" s="20"/>
+      <c r="AD219" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H2:K2"/>
@@ -13341,31 +14534,31 @@
     <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X4:X199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X4:X219">
       <formula1>"reference method,reference other study,reasoning,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F219">
       <formula1>"SP,FB,BS,AL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H199 Z4:AA199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H219 Z4:AA219">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T4:T199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T4:T219">
       <formula1>"case-wise deletion,list-wise deletion,other deletion,imputation,additional simulations,method replacement,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R199 V4:V199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R219 V4:V219">
       <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G219">
       <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E219">
       <formula1>"PM,SiM,JASA,RSM,EM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P4:P199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P4:P219">
       <formula1>"not quantified,missing proportion (total),missing proportion (per method),missing proportion (per method/condition),max missing proportion (per method),max missing proportion (per method/condition),other,zero missingness"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD4:AD199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD4:AD219">
       <formula1>"high,medium,low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13549,7 +14742,20 @@
     <hyperlink r:id="rId177" ref="D195"/>
     <hyperlink r:id="rId178" ref="D196"/>
     <hyperlink r:id="rId179" ref="D197"/>
+    <hyperlink r:id="rId180" ref="D201"/>
+    <hyperlink r:id="rId181" ref="D202"/>
+    <hyperlink r:id="rId182" ref="D203"/>
+    <hyperlink r:id="rId183" ref="D204"/>
+    <hyperlink r:id="rId184" ref="D205"/>
+    <hyperlink r:id="rId185" ref="D206"/>
+    <hyperlink r:id="rId186" ref="D207"/>
+    <hyperlink r:id="rId187" ref="D208"/>
+    <hyperlink r:id="rId188" ref="D209"/>
+    <hyperlink r:id="rId189" ref="D210"/>
+    <hyperlink r:id="rId190" ref="D211"/>
+    <hyperlink r:id="rId191" ref="D212"/>
+    <hyperlink r:id="rId192" ref="D213"/>
   </hyperlinks>
-  <drawing r:id="rId180"/>
+  <drawing r:id="rId193"/>
 </worksheet>
 </file>
--- a/data/lit_review_data_FB.xlsx
+++ b/data/lit_review_data_FB.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="301">
   <si>
     <t>id</t>
   </si>
@@ -927,7 +927,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -947,10 +947,6 @@
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -1000,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1079,13 +1075,10 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6711,8 +6704,8 @@
       <c r="C89" s="2">
         <v>541.0</v>
       </c>
-      <c r="D89" s="26" t="s">
-        <v>161</v>
+      <c r="D89" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>69</v>
@@ -6764,7 +6757,7 @@
       <c r="AB89" s="9"/>
       <c r="AC89" s="20"/>
       <c r="AD89" s="7" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90">
@@ -6776,7 +6769,7 @@
         <v>541.0</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>69</v>
@@ -6839,8 +6832,8 @@
       <c r="C91" s="2">
         <v>541.0</v>
       </c>
-      <c r="D91" s="16" t="s">
-        <v>163</v>
+      <c r="D91" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>69</v>
@@ -6903,8 +6896,8 @@
       <c r="C92" s="2">
         <v>541.0</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>164</v>
+      <c r="D92" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>69</v>
@@ -6968,7 +6961,7 @@
         <v>541.0</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>69</v>
@@ -7032,7 +7025,7 @@
         <v>541.0</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>69</v>
@@ -7095,8 +7088,8 @@
       <c r="C95" s="2">
         <v>541.0</v>
       </c>
-      <c r="D95" s="16" t="s">
-        <v>167</v>
+      <c r="D95" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>69</v>
@@ -7159,8 +7152,8 @@
       <c r="C96" s="2">
         <v>541.0</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>168</v>
+      <c r="D96" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>69</v>
@@ -7204,7 +7197,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA96" s="7" t="s">
         <v>56</v>
@@ -7224,7 +7217,7 @@
         <v>541.0</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>69</v>
@@ -7268,7 +7261,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA97" s="7" t="s">
         <v>56</v>
@@ -7287,8 +7280,8 @@
       <c r="C98" s="2">
         <v>541.0</v>
       </c>
-      <c r="D98" s="16" t="s">
-        <v>170</v>
+      <c r="D98" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>69</v>
@@ -7351,8 +7344,8 @@
       <c r="C99" s="2">
         <v>541.0</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>171</v>
+      <c r="D99" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>69</v>
@@ -7396,7 +7389,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
       <c r="Z99" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA99" s="7" t="s">
         <v>56</v>
@@ -7415,8 +7408,8 @@
       <c r="C100" s="2">
         <v>541.0</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>172</v>
+      <c r="D100" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>69</v>
@@ -7425,11 +7418,9 @@
         <v>54</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H100" s="4"/>
       <c r="I100" s="13" t="b">
         <v>0</v>
       </c>
@@ -7459,17 +7450,11 @@
       <c r="W100" s="8"/>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
-      <c r="Z100" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA100" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="7"/>
       <c r="AB100" s="9"/>
       <c r="AC100" s="20"/>
-      <c r="AD100" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD100" s="7"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
@@ -7479,8 +7464,8 @@
       <c r="C101" s="2">
         <v>541.0</v>
       </c>
-      <c r="D101" s="10" t="s">
-        <v>173</v>
+      <c r="D101" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>69</v>
@@ -7489,9 +7474,11 @@
         <v>54</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H101" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I101" s="13" t="b">
         <v>0</v>
       </c>
@@ -7521,11 +7508,17 @@
       <c r="W101" s="8"/>
       <c r="X101" s="9"/>
       <c r="Y101" s="9"/>
-      <c r="Z101" s="6"/>
-      <c r="AA101" s="7"/>
+      <c r="Z101" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA101" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB101" s="9"/>
       <c r="AC101" s="20"/>
-      <c r="AD101" s="7"/>
+      <c r="AD101" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
@@ -7535,8 +7528,8 @@
       <c r="C102" s="2">
         <v>541.0</v>
       </c>
-      <c r="D102" s="16" t="s">
-        <v>174</v>
+      <c r="D102" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>69</v>
@@ -7599,8 +7592,8 @@
       <c r="C103" s="2">
         <v>541.0</v>
       </c>
-      <c r="D103" s="10" t="s">
-        <v>175</v>
+      <c r="D103" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>69</v>
@@ -7644,7 +7637,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="9"/>
       <c r="Z103" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA103" s="7" t="s">
         <v>56</v>
@@ -7663,8 +7656,8 @@
       <c r="C104" s="2">
         <v>541.0</v>
       </c>
-      <c r="D104" s="16" t="s">
-        <v>176</v>
+      <c r="D104" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>69</v>
@@ -7708,7 +7701,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
       <c r="Z104" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA104" s="7" t="s">
         <v>56</v>
@@ -7728,7 +7721,7 @@
         <v>541.0</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>69</v>
@@ -7737,11 +7730,9 @@
         <v>54</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H105" s="7"/>
       <c r="I105" s="13" t="b">
         <v>0</v>
       </c>
@@ -7771,17 +7762,11 @@
       <c r="W105" s="8"/>
       <c r="X105" s="9"/>
       <c r="Y105" s="9"/>
-      <c r="Z105" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA105" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
       <c r="AC105" s="20"/>
-      <c r="AD105" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD105" s="21"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
@@ -7792,7 +7777,7 @@
         <v>541.0</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>69</v>
@@ -7847,8 +7832,8 @@
       <c r="C107" s="2">
         <v>541.0</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>179</v>
+      <c r="D107" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>69</v>
@@ -7857,9 +7842,11 @@
         <v>54</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H107" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I107" s="13" t="b">
         <v>0</v>
       </c>
@@ -7889,11 +7876,17 @@
       <c r="W107" s="8"/>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
-      <c r="Z107" s="8"/>
-      <c r="AA107" s="9"/>
+      <c r="Z107" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA107" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB107" s="9"/>
       <c r="AC107" s="20"/>
-      <c r="AD107" s="21"/>
+      <c r="AD107" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
@@ -7904,7 +7897,7 @@
         <v>541.0</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>69</v>
@@ -7913,11 +7906,9 @@
         <v>54</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H108" s="7"/>
       <c r="I108" s="13" t="b">
         <v>0</v>
       </c>
@@ -7947,17 +7938,11 @@
       <c r="W108" s="8"/>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
-      <c r="Z108" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA108" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
       <c r="AC108" s="20"/>
-      <c r="AD108" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD108" s="21"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
@@ -7968,7 +7953,7 @@
         <v>541.0</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>69</v>
@@ -8024,7 +8009,7 @@
         <v>541.0</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>69</v>
@@ -8033,9 +8018,11 @@
         <v>54</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H110" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I110" s="13" t="b">
         <v>0</v>
       </c>
@@ -8065,11 +8052,17 @@
       <c r="W110" s="8"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
-      <c r="Z110" s="8"/>
-      <c r="AA110" s="9"/>
+      <c r="Z110" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA110" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB110" s="9"/>
       <c r="AC110" s="20"/>
-      <c r="AD110" s="21"/>
+      <c r="AD110" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
@@ -8080,7 +8073,7 @@
         <v>541.0</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>69</v>
@@ -8144,7 +8137,7 @@
         <v>541.0</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>69</v>
@@ -8208,7 +8201,7 @@
         <v>541.0</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>69</v>
@@ -8271,8 +8264,8 @@
       <c r="C114" s="2">
         <v>541.0</v>
       </c>
-      <c r="D114" s="16" t="s">
-        <v>186</v>
+      <c r="D114" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>69</v>
@@ -8335,8 +8328,8 @@
       <c r="C115" s="2">
         <v>541.0</v>
       </c>
-      <c r="D115" s="10" t="s">
-        <v>187</v>
+      <c r="D115" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>69</v>
@@ -8348,39 +8341,49 @@
         <v>55</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I115" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J115" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K115" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M115" s="15" t="b">
-        <v>0</v>
+      <c r="J115" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="N115" s="15" t="b">
         <v>0</v>
       </c>
       <c r="O115" s="8"/>
-      <c r="P115" s="9"/>
+      <c r="P115" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="Q115" s="9"/>
-      <c r="R115" s="8"/>
+      <c r="R115" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="S115" s="8"/>
-      <c r="T115" s="9"/>
-      <c r="U115" s="9"/>
-      <c r="V115" s="8"/>
+      <c r="T115" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="U115" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="V115" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="W115" s="8"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA115" s="7" t="s">
         <v>56</v>
@@ -8388,7 +8391,7 @@
       <c r="AB115" s="9"/>
       <c r="AC115" s="20"/>
       <c r="AD115" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116">
@@ -8400,7 +8403,7 @@
         <v>541.0</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>69</v>
@@ -8412,49 +8415,39 @@
         <v>55</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I116" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J116" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K116" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M116" s="18" t="b">
-        <v>1</v>
+      <c r="J116" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="N116" s="15" t="b">
         <v>0</v>
       </c>
       <c r="O116" s="8"/>
-      <c r="P116" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
-      <c r="R116" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="R116" s="8"/>
       <c r="S116" s="8"/>
-      <c r="T116" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="U116" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="V116" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="8"/>
       <c r="W116" s="8"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA116" s="7" t="s">
         <v>56</v>
@@ -8462,7 +8455,7 @@
       <c r="AB116" s="9"/>
       <c r="AC116" s="20"/>
       <c r="AD116" s="7" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117">
@@ -8474,7 +8467,7 @@
         <v>541.0</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>69</v>
@@ -8538,7 +8531,7 @@
         <v>541.0</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>69</v>
@@ -8582,7 +8575,7 @@
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA118" s="7" t="s">
         <v>56</v>
@@ -8602,7 +8595,7 @@
         <v>541.0</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>69</v>
@@ -8652,9 +8645,11 @@
         <v>56</v>
       </c>
       <c r="AB119" s="9"/>
-      <c r="AC119" s="20"/>
+      <c r="AC119" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="AD119" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120">
@@ -8665,8 +8660,8 @@
       <c r="C120" s="2">
         <v>541.0</v>
       </c>
-      <c r="D120" s="16" t="s">
-        <v>194</v>
+      <c r="D120" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>69</v>
@@ -8710,17 +8705,15 @@
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA120" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AB120" s="9"/>
-      <c r="AC120" s="6" t="s">
-        <v>195</v>
-      </c>
+      <c r="AC120" s="20"/>
       <c r="AD120" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121">
@@ -8731,8 +8724,8 @@
       <c r="C121" s="2">
         <v>541.0</v>
       </c>
-      <c r="D121" s="10" t="s">
-        <v>196</v>
+      <c r="D121" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>69</v>
@@ -8776,7 +8769,7 @@
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
       <c r="Z121" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA121" s="7" t="s">
         <v>56</v>
@@ -8795,8 +8788,8 @@
       <c r="C122" s="2">
         <v>541.0</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>197</v>
+      <c r="D122" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>69</v>
@@ -8840,7 +8833,7 @@
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
       <c r="Z122" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA122" s="7" t="s">
         <v>56</v>
@@ -8859,8 +8852,8 @@
       <c r="C123" s="2">
         <v>541.0</v>
       </c>
-      <c r="D123" s="10" t="s">
-        <v>198</v>
+      <c r="D123" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>69</v>
@@ -8917,27 +8910,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1"/>
-      <c r="B124" s="2">
-        <v>2023.0</v>
-      </c>
-      <c r="C124" s="2">
-        <v>541.0</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="7"/>
       <c r="I124" s="13" t="b">
         <v>0</v>
       </c>
@@ -8967,27 +8946,35 @@
       <c r="W124" s="8"/>
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
-      <c r="Z124" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA124" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z124" s="8"/>
+      <c r="AA124" s="9"/>
       <c r="AB124" s="9"/>
       <c r="AC124" s="20"/>
-      <c r="AD124" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD124" s="21"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="7"/>
+      <c r="B125" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="C125" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I125" s="13" t="b">
         <v>0</v>
       </c>
@@ -9017,11 +9004,17 @@
       <c r="W125" s="8"/>
       <c r="X125" s="9"/>
       <c r="Y125" s="9"/>
-      <c r="Z125" s="8"/>
-      <c r="AA125" s="9"/>
+      <c r="Z125" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA125" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB125" s="9"/>
       <c r="AC125" s="20"/>
-      <c r="AD125" s="21"/>
+      <c r="AD125" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
@@ -9032,7 +9025,7 @@
         <v>6.0</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>53</v>
@@ -9041,11 +9034,9 @@
         <v>54</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H126" s="7"/>
       <c r="I126" s="13" t="b">
         <v>0</v>
       </c>
@@ -9075,17 +9066,11 @@
       <c r="W126" s="8"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>
-      <c r="Z126" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA126" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z126" s="8"/>
+      <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
       <c r="AC126" s="20"/>
-      <c r="AD126" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD126" s="21"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
@@ -9096,7 +9081,7 @@
         <v>6.0</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>53</v>
@@ -9152,7 +9137,7 @@
         <v>6.0</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>53</v>
@@ -9161,9 +9146,11 @@
         <v>54</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H128" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I128" s="13" t="b">
         <v>0</v>
       </c>
@@ -9193,11 +9180,17 @@
       <c r="W128" s="8"/>
       <c r="X128" s="9"/>
       <c r="Y128" s="9"/>
-      <c r="Z128" s="8"/>
-      <c r="AA128" s="9"/>
+      <c r="Z128" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA128" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB128" s="9"/>
       <c r="AC128" s="20"/>
-      <c r="AD128" s="21"/>
+      <c r="AD128" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
@@ -9208,7 +9201,7 @@
         <v>6.0</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>53</v>
@@ -9252,7 +9245,7 @@
       <c r="X129" s="9"/>
       <c r="Y129" s="9"/>
       <c r="Z129" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA129" s="7" t="s">
         <v>56</v>
@@ -9272,7 +9265,7 @@
         <v>6.0</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>53</v>
@@ -9336,7 +9329,7 @@
         <v>6.0</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>53</v>
@@ -9345,11 +9338,9 @@
         <v>54</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H131" s="7"/>
       <c r="I131" s="13" t="b">
         <v>0</v>
       </c>
@@ -9379,17 +9370,11 @@
       <c r="W131" s="8"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
-      <c r="Z131" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA131" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z131" s="8"/>
+      <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
       <c r="AC131" s="20"/>
-      <c r="AD131" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD131" s="21"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
@@ -9400,7 +9385,7 @@
         <v>6.0</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>53</v>
@@ -9456,7 +9441,7 @@
         <v>6.0</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>53</v>
@@ -9465,9 +9450,11 @@
         <v>54</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H133" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I133" s="13" t="b">
         <v>0</v>
       </c>
@@ -9497,11 +9484,17 @@
       <c r="W133" s="8"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="9"/>
-      <c r="Z133" s="8"/>
-      <c r="AA133" s="9"/>
+      <c r="Z133" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA133" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB133" s="9"/>
       <c r="AC133" s="20"/>
-      <c r="AD133" s="21"/>
+      <c r="AD133" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
@@ -9512,7 +9505,7 @@
         <v>6.0</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>53</v>
@@ -9521,11 +9514,9 @@
         <v>54</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H134" s="7"/>
       <c r="I134" s="13" t="b">
         <v>0</v>
       </c>
@@ -9555,38 +9546,20 @@
       <c r="W134" s="8"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="9"/>
-      <c r="Z134" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA134" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z134" s="8"/>
+      <c r="AA134" s="9"/>
       <c r="AB134" s="9"/>
       <c r="AC134" s="20"/>
-      <c r="AD134" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="AD134" s="21"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
-      <c r="B135" s="2">
-        <v>2022.0</v>
-      </c>
-      <c r="C135" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="12"/>
       <c r="H135" s="7"/>
       <c r="I135" s="13" t="b">
         <v>0</v>
@@ -9625,12 +9598,24 @@
     </row>
     <row r="136">
       <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="12"/>
+      <c r="B136" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H136" s="7"/>
       <c r="I136" s="13" t="b">
         <v>0</v>
@@ -9676,7 +9661,7 @@
         <v>2.0</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>53</v>
@@ -9685,43 +9670,65 @@
         <v>54</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H137" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I137" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J137" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K137" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N137" s="15" t="b">
-        <v>0</v>
+      <c r="J137" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M137" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N137" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="O137" s="8"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="8"/>
-      <c r="S137" s="8"/>
-      <c r="T137" s="9"/>
-      <c r="U137" s="9"/>
+      <c r="P137" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q137" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="R137" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S137" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="V137" s="8"/>
-      <c r="W137" s="8"/>
+      <c r="W137" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
-      <c r="Z137" s="8"/>
-      <c r="AA137" s="9"/>
+      <c r="Y137" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z137" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA137" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB137" s="9"/>
       <c r="AC137" s="20"/>
-      <c r="AD137" s="21"/>
+      <c r="AD137" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
@@ -9732,7 +9739,7 @@
         <v>2.0</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>53</v>
@@ -9741,65 +9748,43 @@
         <v>54</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H138" s="7"/>
       <c r="I138" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J138" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K138" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M138" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N138" s="18" t="b">
-        <v>1</v>
+      <c r="J138" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N138" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="O138" s="8"/>
-      <c r="P138" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q138" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="R138" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S138" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="T138" s="7"/>
-      <c r="U138" s="7" t="s">
-        <v>213</v>
-      </c>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="8"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="9"/>
+      <c r="U138" s="9"/>
       <c r="V138" s="8"/>
-      <c r="W138" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="W138" s="8"/>
       <c r="X138" s="9"/>
-      <c r="Y138" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z138" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA138" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Y138" s="9"/>
+      <c r="Z138" s="8"/>
+      <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="20"/>
-      <c r="AD138" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="AD138" s="21"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
@@ -9810,7 +9795,7 @@
         <v>2.0</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>53</v>
@@ -9866,7 +9851,7 @@
         <v>2.0</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>53</v>
@@ -9921,8 +9906,8 @@
       <c r="C141" s="2">
         <v>2.0</v>
       </c>
-      <c r="D141" s="10" t="s">
-        <v>216</v>
+      <c r="D141" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>53</v>
@@ -9931,20 +9916,22 @@
         <v>54</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H141" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I141" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J141" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="15" t="b">
-        <v>0</v>
+      <c r="K141" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="M141" s="15" t="b">
         <v>0</v>
@@ -9953,7 +9940,9 @@
         <v>0</v>
       </c>
       <c r="O141" s="8"/>
-      <c r="P141" s="9"/>
+      <c r="P141" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="Q141" s="9"/>
       <c r="R141" s="8"/>
       <c r="S141" s="8"/>
@@ -9963,11 +9952,17 @@
       <c r="W141" s="8"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
-      <c r="Z141" s="8"/>
-      <c r="AA141" s="9"/>
+      <c r="Z141" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA141" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB141" s="9"/>
       <c r="AC141" s="20"/>
-      <c r="AD141" s="21"/>
+      <c r="AD141" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
@@ -9978,7 +9973,7 @@
         <v>2.0</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>53</v>
@@ -10012,14 +10007,20 @@
       </c>
       <c r="O142" s="8"/>
       <c r="P142" s="7" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="Q142" s="9"/>
-      <c r="R142" s="8"/>
+      <c r="R142" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="S142" s="8"/>
-      <c r="T142" s="9"/>
+      <c r="T142" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="U142" s="9"/>
-      <c r="V142" s="8"/>
+      <c r="V142" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="W142" s="8"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
@@ -10027,48 +10028,34 @@
         <v>56</v>
       </c>
       <c r="AA142" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB142" s="9"/>
       <c r="AC142" s="20"/>
       <c r="AD142" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
-      <c r="B143" s="2">
-        <v>2022.0</v>
-      </c>
-      <c r="C143" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D143" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G143" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="7"/>
       <c r="I143" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J143" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" s="18" t="b">
-        <v>1</v>
+      <c r="K143" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="M143" s="15" t="b">
         <v>0</v>
@@ -10077,44 +10064,42 @@
         <v>0</v>
       </c>
       <c r="O143" s="8"/>
-      <c r="P143" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="P143" s="9"/>
       <c r="Q143" s="9"/>
-      <c r="R143" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="R143" s="8"/>
       <c r="S143" s="8"/>
-      <c r="T143" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="T143" s="9"/>
       <c r="U143" s="9"/>
-      <c r="V143" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="V143" s="8"/>
       <c r="W143" s="8"/>
       <c r="X143" s="9"/>
       <c r="Y143" s="9"/>
-      <c r="Z143" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA143" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="Z143" s="8"/>
+      <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
       <c r="AC143" s="20"/>
-      <c r="AD143" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="AD143" s="21"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="12"/>
+      <c r="B144" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="C144" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H144" s="7"/>
       <c r="I144" s="13" t="b">
         <v>0</v>
@@ -10160,7 +10145,7 @@
         <v>4.0</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>53</v>
@@ -10216,7 +10201,7 @@
         <v>4.0</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>53</v>
@@ -10225,9 +10210,11 @@
         <v>54</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H146" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I146" s="13" t="b">
         <v>0</v>
       </c>
@@ -10257,11 +10244,17 @@
       <c r="W146" s="8"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="9"/>
-      <c r="Z146" s="8"/>
-      <c r="AA146" s="9"/>
+      <c r="Z146" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA146" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB146" s="9"/>
       <c r="AC146" s="20"/>
-      <c r="AD146" s="21"/>
+      <c r="AD146" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
@@ -10272,7 +10265,7 @@
         <v>4.0</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>53</v>
@@ -10281,11 +10274,9 @@
         <v>54</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H147" s="7"/>
       <c r="I147" s="13" t="b">
         <v>0</v>
       </c>
@@ -10315,17 +10306,13 @@
       <c r="W147" s="8"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="9"/>
-      <c r="Z147" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA147" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z147" s="8"/>
+      <c r="AA147" s="9"/>
       <c r="AB147" s="9"/>
-      <c r="AC147" s="20"/>
-      <c r="AD147" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AC147" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD147" s="21"/>
     </row>
     <row r="148">
       <c r="A148" s="1"/>
@@ -10336,7 +10323,7 @@
         <v>4.0</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>53</v>
@@ -10345,20 +10332,22 @@
         <v>54</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H148" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I148" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J148" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K148" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="15" t="b">
-        <v>0</v>
+      <c r="K148" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="M148" s="15" t="b">
         <v>0</v>
@@ -10367,23 +10356,39 @@
         <v>0</v>
       </c>
       <c r="O148" s="8"/>
-      <c r="P148" s="9"/>
-      <c r="Q148" s="9"/>
-      <c r="R148" s="8"/>
+      <c r="P148" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q148" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="R148" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="S148" s="8"/>
-      <c r="T148" s="9"/>
+      <c r="T148" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="U148" s="9"/>
-      <c r="V148" s="8"/>
+      <c r="V148" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="W148" s="8"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="9"/>
-      <c r="Z148" s="8"/>
-      <c r="AA148" s="9"/>
-      <c r="AB148" s="9"/>
-      <c r="AC148" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD148" s="21"/>
+      <c r="Z148" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA148" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB148" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC148" s="20"/>
+      <c r="AD148" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
@@ -10394,7 +10399,7 @@
         <v>4.0</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>53</v>
@@ -10403,22 +10408,20 @@
         <v>54</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H149" s="7"/>
       <c r="I149" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J149" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" s="18" t="b">
-        <v>1</v>
+      <c r="K149" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="M149" s="15" t="b">
         <v>0</v>
@@ -10427,39 +10430,21 @@
         <v>0</v>
       </c>
       <c r="O149" s="8"/>
-      <c r="P149" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q149" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="R149" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+      <c r="R149" s="8"/>
       <c r="S149" s="8"/>
-      <c r="T149" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="T149" s="9"/>
       <c r="U149" s="9"/>
-      <c r="V149" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="V149" s="8"/>
       <c r="W149" s="8"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="9"/>
-      <c r="Z149" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA149" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB149" s="7" t="s">
-        <v>228</v>
-      </c>
+      <c r="Z149" s="8"/>
+      <c r="AA149" s="9"/>
+      <c r="AB149" s="9"/>
       <c r="AC149" s="20"/>
-      <c r="AD149" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="AD149" s="21"/>
     </row>
     <row r="150">
       <c r="A150" s="1"/>
@@ -10470,7 +10455,7 @@
         <v>4.0</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>53</v>
@@ -10511,11 +10496,11 @@
       <c r="W150" s="8"/>
       <c r="X150" s="9"/>
       <c r="Y150" s="9"/>
-      <c r="Z150" s="8"/>
-      <c r="AA150" s="9"/>
+      <c r="Z150" s="6"/>
+      <c r="AA150" s="7"/>
       <c r="AB150" s="9"/>
-      <c r="AC150" s="20"/>
-      <c r="AD150" s="21"/>
+      <c r="AC150" s="6"/>
+      <c r="AD150" s="7"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
@@ -10526,7 +10511,7 @@
         <v>4.0</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>53</v>
@@ -10535,9 +10520,11 @@
         <v>54</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H151" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I151" s="13" t="b">
         <v>0</v>
       </c>
@@ -10567,11 +10554,19 @@
       <c r="W151" s="8"/>
       <c r="X151" s="9"/>
       <c r="Y151" s="9"/>
-      <c r="Z151" s="6"/>
-      <c r="AA151" s="7"/>
+      <c r="Z151" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA151" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB151" s="9"/>
-      <c r="AC151" s="6"/>
-      <c r="AD151" s="7"/>
+      <c r="AC151" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD151" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
@@ -10581,8 +10576,8 @@
       <c r="C152" s="2">
         <v>4.0</v>
       </c>
-      <c r="D152" s="10" t="s">
-        <v>231</v>
+      <c r="D152" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>53</v>
@@ -10591,11 +10586,9 @@
         <v>54</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H152" s="7"/>
       <c r="I152" s="13" t="b">
         <v>0</v>
       </c>
@@ -10625,40 +10618,20 @@
       <c r="W152" s="8"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="9"/>
-      <c r="Z152" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA152" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z152" s="8"/>
+      <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
-      <c r="AC152" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD152" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AC152" s="20"/>
+      <c r="AD152" s="21"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
-      <c r="B153" s="2">
-        <v>2021.0</v>
-      </c>
-      <c r="C153" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D153" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G153" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="12"/>
       <c r="H153" s="7"/>
       <c r="I153" s="13" t="b">
         <v>0</v>
@@ -10697,12 +10670,24 @@
     </row>
     <row r="154">
       <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="12"/>
+      <c r="B154" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="C154" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H154" s="7"/>
       <c r="I154" s="13" t="b">
         <v>0</v>
@@ -10748,7 +10733,7 @@
         <v>25.0</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>67</v>
@@ -10757,9 +10742,11 @@
         <v>54</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H155" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I155" s="13" t="b">
         <v>0</v>
       </c>
@@ -10789,11 +10776,17 @@
       <c r="W155" s="8"/>
       <c r="X155" s="9"/>
       <c r="Y155" s="9"/>
-      <c r="Z155" s="8"/>
-      <c r="AA155" s="9"/>
+      <c r="Z155" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA155" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB155" s="9"/>
       <c r="AC155" s="20"/>
-      <c r="AD155" s="21"/>
+      <c r="AD155" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
@@ -10804,7 +10797,7 @@
         <v>25.0</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>67</v>
@@ -10848,13 +10841,15 @@
       <c r="X156" s="9"/>
       <c r="Y156" s="9"/>
       <c r="Z156" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA156" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AB156" s="9"/>
-      <c r="AC156" s="20"/>
+      <c r="AC156" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="AD156" s="7" t="s">
         <v>58</v>
       </c>
@@ -10868,7 +10863,7 @@
         <v>25.0</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>67</v>
@@ -10918,9 +10913,7 @@
         <v>56</v>
       </c>
       <c r="AB157" s="9"/>
-      <c r="AC157" s="6" t="s">
-        <v>237</v>
-      </c>
+      <c r="AC157" s="20"/>
       <c r="AD157" s="7" t="s">
         <v>58</v>
       </c>
@@ -10934,7 +10927,7 @@
         <v>25.0</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>67</v>
@@ -10998,7 +10991,7 @@
         <v>25.0</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>67</v>
@@ -11061,8 +11054,8 @@
       <c r="C160" s="2">
         <v>25.0</v>
       </c>
-      <c r="D160" s="10" t="s">
-        <v>240</v>
+      <c r="D160" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>67</v>
@@ -11074,19 +11067,19 @@
         <v>55</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I160" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J160" s="13" t="b">
-        <v>0</v>
+      <c r="J160" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="K160" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="L160" s="15" t="b">
-        <v>0</v>
+      <c r="L160" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="M160" s="15" t="b">
         <v>0</v>
@@ -11095,13 +11088,23 @@
         <v>0</v>
       </c>
       <c r="O160" s="8"/>
-      <c r="P160" s="9"/>
+      <c r="P160" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="Q160" s="9"/>
-      <c r="R160" s="8"/>
+      <c r="R160" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="S160" s="8"/>
-      <c r="T160" s="9"/>
-      <c r="U160" s="9"/>
-      <c r="V160" s="8"/>
+      <c r="T160" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="U160" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="V160" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="W160" s="8"/>
       <c r="X160" s="9"/>
       <c r="Y160" s="9"/>
@@ -11125,8 +11128,8 @@
       <c r="C161" s="2">
         <v>25.0</v>
       </c>
-      <c r="D161" s="16" t="s">
-        <v>241</v>
+      <c r="D161" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>67</v>
@@ -11138,19 +11141,19 @@
         <v>55</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I161" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J161" s="17" t="b">
-        <v>1</v>
+      <c r="J161" s="13" t="b">
+        <v>0</v>
       </c>
       <c r="K161" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="L161" s="18" t="b">
-        <v>1</v>
+      <c r="L161" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="M161" s="15" t="b">
         <v>0</v>
@@ -11159,23 +11162,13 @@
         <v>0</v>
       </c>
       <c r="O161" s="8"/>
-      <c r="P161" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="P161" s="9"/>
       <c r="Q161" s="9"/>
-      <c r="R161" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="R161" s="8"/>
       <c r="S161" s="8"/>
-      <c r="T161" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="U161" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="V161" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="T161" s="9"/>
+      <c r="U161" s="9"/>
+      <c r="V161" s="8"/>
       <c r="W161" s="8"/>
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
@@ -11200,7 +11193,7 @@
         <v>25.0</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>67</v>
@@ -11264,7 +11257,7 @@
         <v>25.0</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>67</v>
@@ -11314,7 +11307,9 @@
         <v>56</v>
       </c>
       <c r="AB163" s="9"/>
-      <c r="AC163" s="20"/>
+      <c r="AC163" s="6" t="s">
+        <v>246</v>
+      </c>
       <c r="AD163" s="7" t="s">
         <v>58</v>
       </c>
@@ -11328,7 +11323,7 @@
         <v>25.0</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>67</v>
@@ -11378,36 +11373,20 @@
         <v>56</v>
       </c>
       <c r="AB164" s="9"/>
-      <c r="AC164" s="6" t="s">
-        <v>246</v>
-      </c>
+      <c r="AC164" s="20"/>
       <c r="AD164" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
-      <c r="B165" s="2">
-        <v>2023.0</v>
-      </c>
-      <c r="C165" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G165" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="7"/>
       <c r="I165" s="13" t="b">
         <v>0</v>
       </c>
@@ -11437,27 +11416,35 @@
       <c r="W165" s="8"/>
       <c r="X165" s="9"/>
       <c r="Y165" s="9"/>
-      <c r="Z165" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA165" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z165" s="8"/>
+      <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
       <c r="AC165" s="20"/>
-      <c r="AD165" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD165" s="21"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="7"/>
+      <c r="B166" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I166" s="13" t="b">
         <v>0</v>
       </c>
@@ -11487,11 +11474,17 @@
       <c r="W166" s="8"/>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
-      <c r="Z166" s="8"/>
-      <c r="AA166" s="9"/>
+      <c r="Z166" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA166" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB166" s="9"/>
       <c r="AC166" s="20"/>
-      <c r="AD166" s="21"/>
+      <c r="AD166" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
@@ -11502,7 +11495,7 @@
         <v>2.0</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -11511,11 +11504,9 @@
         <v>54</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H167" s="7"/>
       <c r="I167" s="13" t="b">
         <v>0</v>
       </c>
@@ -11545,17 +11536,11 @@
       <c r="W167" s="8"/>
       <c r="X167" s="9"/>
       <c r="Y167" s="9"/>
-      <c r="Z167" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA167" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z167" s="8"/>
+      <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
       <c r="AC167" s="20"/>
-      <c r="AD167" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD167" s="21"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
@@ -11566,7 +11551,7 @@
         <v>2.0</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>72</v>
@@ -11622,7 +11607,7 @@
         <v>2.0</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>72</v>
@@ -11631,43 +11616,61 @@
         <v>54</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H169" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I169" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J169" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K169" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M169" s="15" t="b">
-        <v>0</v>
+      <c r="J169" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K169" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M169" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="N169" s="15" t="b">
         <v>0</v>
       </c>
       <c r="O169" s="8"/>
-      <c r="P169" s="9"/>
-      <c r="Q169" s="9"/>
-      <c r="R169" s="8"/>
+      <c r="P169" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q169" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="R169" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="S169" s="8"/>
-      <c r="T169" s="9"/>
+      <c r="T169" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="U169" s="9"/>
-      <c r="V169" s="8"/>
+      <c r="V169" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="W169" s="8"/>
       <c r="X169" s="9"/>
       <c r="Y169" s="9"/>
-      <c r="Z169" s="8"/>
-      <c r="AA169" s="9"/>
+      <c r="Z169" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA169" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="AB169" s="9"/>
       <c r="AC169" s="20"/>
-      <c r="AD169" s="21"/>
+      <c r="AD169" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
@@ -11678,7 +11681,7 @@
         <v>2.0</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>72</v>
@@ -11687,61 +11690,43 @@
         <v>54</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H170" s="7"/>
       <c r="I170" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J170" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K170" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M170" s="18" t="b">
-        <v>1</v>
+      <c r="J170" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K170" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="N170" s="15" t="b">
         <v>0</v>
       </c>
       <c r="O170" s="8"/>
-      <c r="P170" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q170" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="R170" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="P170" s="9"/>
+      <c r="Q170" s="9"/>
+      <c r="R170" s="8"/>
       <c r="S170" s="8"/>
-      <c r="T170" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="T170" s="9"/>
       <c r="U170" s="9"/>
-      <c r="V170" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="V170" s="8"/>
       <c r="W170" s="8"/>
       <c r="X170" s="9"/>
       <c r="Y170" s="9"/>
-      <c r="Z170" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA170" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="Z170" s="8"/>
+      <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
       <c r="AC170" s="20"/>
-      <c r="AD170" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD170" s="21"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
@@ -11752,7 +11737,7 @@
         <v>2.0</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>72</v>
@@ -11801,24 +11786,12 @@
     </row>
     <row r="172">
       <c r="A172" s="1"/>
-      <c r="B172" s="2">
-        <v>2021.0</v>
-      </c>
-      <c r="C172" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G172" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="12"/>
       <c r="H172" s="7"/>
       <c r="I172" s="13" t="b">
         <v>0</v>
@@ -11857,12 +11830,24 @@
     </row>
     <row r="173">
       <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="12"/>
+      <c r="B173" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="C173" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H173" s="7"/>
       <c r="I173" s="13" t="b">
         <v>0</v>
@@ -11907,8 +11892,8 @@
       <c r="C174" s="2">
         <v>4.0</v>
       </c>
-      <c r="D174" s="10" t="s">
-        <v>255</v>
+      <c r="D174" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>72</v>
@@ -11963,8 +11948,8 @@
       <c r="C175" s="2">
         <v>4.0</v>
       </c>
-      <c r="D175" s="16" t="s">
-        <v>256</v>
+      <c r="D175" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>72</v>
@@ -11973,9 +11958,11 @@
         <v>54</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H175" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I175" s="13" t="b">
         <v>0</v>
       </c>
@@ -12005,11 +11992,17 @@
       <c r="W175" s="8"/>
       <c r="X175" s="9"/>
       <c r="Y175" s="9"/>
-      <c r="Z175" s="8"/>
-      <c r="AA175" s="9"/>
+      <c r="Z175" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA175" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB175" s="9"/>
       <c r="AC175" s="20"/>
-      <c r="AD175" s="21"/>
+      <c r="AD175" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
@@ -12019,8 +12012,8 @@
       <c r="C176" s="2">
         <v>4.0</v>
       </c>
-      <c r="D176" s="10" t="s">
-        <v>257</v>
+      <c r="D176" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>72</v>
@@ -12064,7 +12057,7 @@
       <c r="X176" s="9"/>
       <c r="Y176" s="9"/>
       <c r="Z176" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA176" s="7" t="s">
         <v>56</v>
@@ -12083,8 +12076,8 @@
       <c r="C177" s="2">
         <v>4.0</v>
       </c>
-      <c r="D177" s="16" t="s">
-        <v>258</v>
+      <c r="D177" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>72</v>
@@ -12128,7 +12121,7 @@
       <c r="X177" s="9"/>
       <c r="Y177" s="9"/>
       <c r="Z177" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA177" s="7" t="s">
         <v>56</v>
@@ -12141,27 +12134,11 @@
     </row>
     <row r="178">
       <c r="A178" s="1"/>
-      <c r="B178" s="2">
-        <v>2020.0</v>
-      </c>
-      <c r="C178" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G178" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="7"/>
       <c r="I178" s="13" t="b">
         <v>0</v>
       </c>
@@ -12191,25 +12168,35 @@
       <c r="W178" s="8"/>
       <c r="X178" s="9"/>
       <c r="Y178" s="9"/>
-      <c r="Z178" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA178" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z178" s="8"/>
+      <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
       <c r="AC178" s="20"/>
-      <c r="AD178" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD178" s="21"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="7"/>
+      <c r="B179" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="C179" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I179" s="13" t="b">
         <v>0</v>
       </c>
@@ -12239,11 +12226,17 @@
       <c r="W179" s="8"/>
       <c r="X179" s="9"/>
       <c r="Y179" s="9"/>
-      <c r="Z179" s="8"/>
-      <c r="AA179" s="9"/>
+      <c r="Z179" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA179" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB179" s="9"/>
       <c r="AC179" s="20"/>
-      <c r="AD179" s="21"/>
+      <c r="AD179" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
@@ -12253,8 +12246,8 @@
       <c r="C180" s="2">
         <v>4.0</v>
       </c>
-      <c r="D180" s="16" t="s">
-        <v>260</v>
+      <c r="D180" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>72</v>
@@ -12263,11 +12256,9 @@
         <v>54</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H180" s="7"/>
       <c r="I180" s="13" t="b">
         <v>0</v>
       </c>
@@ -12297,17 +12288,11 @@
       <c r="W180" s="8"/>
       <c r="X180" s="9"/>
       <c r="Y180" s="9"/>
-      <c r="Z180" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA180" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z180" s="8"/>
+      <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
       <c r="AC180" s="20"/>
-      <c r="AD180" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD180" s="21"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
@@ -12317,8 +12302,8 @@
       <c r="C181" s="2">
         <v>4.0</v>
       </c>
-      <c r="D181" s="10" t="s">
-        <v>261</v>
+      <c r="D181" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>72</v>
@@ -12327,43 +12312,61 @@
         <v>54</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H181" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I181" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J181" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K181" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M181" s="15" t="b">
-        <v>0</v>
+      <c r="K181" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M181" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="N181" s="15" t="b">
         <v>0</v>
       </c>
       <c r="O181" s="8"/>
-      <c r="P181" s="9"/>
+      <c r="P181" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="Q181" s="9"/>
-      <c r="R181" s="8"/>
+      <c r="R181" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="S181" s="8"/>
-      <c r="T181" s="9"/>
-      <c r="U181" s="9"/>
-      <c r="V181" s="8"/>
+      <c r="T181" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="U181" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V181" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="W181" s="8"/>
       <c r="X181" s="9"/>
       <c r="Y181" s="9"/>
-      <c r="Z181" s="8"/>
-      <c r="AA181" s="9"/>
+      <c r="Z181" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA181" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB181" s="9"/>
       <c r="AC181" s="20"/>
-      <c r="AD181" s="21"/>
+      <c r="AD181" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
@@ -12374,7 +12377,7 @@
         <v>4.0</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>72</v>
@@ -12383,61 +12386,43 @@
         <v>54</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H182" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H182" s="7"/>
       <c r="I182" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J182" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K182" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M182" s="18" t="b">
-        <v>1</v>
+      <c r="K182" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M182" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="N182" s="15" t="b">
         <v>0</v>
       </c>
       <c r="O182" s="8"/>
-      <c r="P182" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="P182" s="9"/>
       <c r="Q182" s="9"/>
-      <c r="R182" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="R182" s="8"/>
       <c r="S182" s="8"/>
-      <c r="T182" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="U182" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="V182" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="T182" s="9"/>
+      <c r="U182" s="9"/>
+      <c r="V182" s="8"/>
       <c r="W182" s="8"/>
       <c r="X182" s="9"/>
       <c r="Y182" s="9"/>
-      <c r="Z182" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA182" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z182" s="8"/>
+      <c r="AA182" s="9"/>
       <c r="AB182" s="9"/>
       <c r="AC182" s="20"/>
-      <c r="AD182" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD182" s="21"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
@@ -12447,8 +12432,8 @@
       <c r="C183" s="2">
         <v>4.0</v>
       </c>
-      <c r="D183" s="16" t="s">
-        <v>263</v>
+      <c r="D183" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>72</v>
@@ -12457,20 +12442,22 @@
         <v>54</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H183" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="I183" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J183" s="13" t="b">
-        <v>0</v>
+      <c r="J183" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="K183" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="L183" s="15" t="b">
-        <v>0</v>
+      <c r="L183" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="M183" s="15" t="b">
         <v>0</v>
@@ -12479,21 +12466,43 @@
         <v>0</v>
       </c>
       <c r="O183" s="8"/>
-      <c r="P183" s="9"/>
-      <c r="Q183" s="9"/>
-      <c r="R183" s="8"/>
+      <c r="P183" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q183" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="R183" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="S183" s="8"/>
-      <c r="T183" s="9"/>
-      <c r="U183" s="9"/>
-      <c r="V183" s="8"/>
+      <c r="T183" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U183" s="7"/>
+      <c r="V183" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="W183" s="8"/>
-      <c r="X183" s="9"/>
-      <c r="Y183" s="9"/>
-      <c r="Z183" s="8"/>
-      <c r="AA183" s="9"/>
+      <c r="X183" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y183" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z183" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA183" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB183" s="9"/>
-      <c r="AC183" s="20"/>
-      <c r="AD183" s="21"/>
+      <c r="AC183" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD183" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
@@ -12503,8 +12512,8 @@
       <c r="C184" s="2">
         <v>4.0</v>
       </c>
-      <c r="D184" s="10" t="s">
-        <v>264</v>
+      <c r="D184" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>72</v>
@@ -12513,22 +12522,20 @@
         <v>54</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H184" s="7"/>
       <c r="I184" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="J184" s="17" t="b">
-        <v>1</v>
+      <c r="J184" s="13" t="b">
+        <v>0</v>
       </c>
       <c r="K184" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="L184" s="18" t="b">
-        <v>1</v>
+      <c r="L184" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="M184" s="15" t="b">
         <v>0</v>
@@ -12537,43 +12544,21 @@
         <v>0</v>
       </c>
       <c r="O184" s="8"/>
-      <c r="P184" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q184" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="R184" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="P184" s="9"/>
+      <c r="Q184" s="9"/>
+      <c r="R184" s="8"/>
       <c r="S184" s="8"/>
-      <c r="T184" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="U184" s="7"/>
-      <c r="V184" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="T184" s="9"/>
+      <c r="U184" s="9"/>
+      <c r="V184" s="8"/>
       <c r="W184" s="8"/>
-      <c r="X184" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y184" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z184" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA184" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="X184" s="9"/>
+      <c r="Y184" s="9"/>
+      <c r="Z184" s="8"/>
+      <c r="AA184" s="9"/>
       <c r="AB184" s="9"/>
-      <c r="AC184" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD184" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AC184" s="20"/>
+      <c r="AD184" s="21"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
@@ -12583,8 +12568,8 @@
       <c r="C185" s="2">
         <v>4.0</v>
       </c>
-      <c r="D185" s="16" t="s">
-        <v>269</v>
+      <c r="D185" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>72</v>
@@ -12593,9 +12578,11 @@
         <v>54</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H185" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I185" s="13" t="b">
         <v>0</v>
       </c>
@@ -12625,11 +12612,17 @@
       <c r="W185" s="8"/>
       <c r="X185" s="9"/>
       <c r="Y185" s="9"/>
-      <c r="Z185" s="8"/>
-      <c r="AA185" s="9"/>
+      <c r="Z185" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA185" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB185" s="9"/>
       <c r="AC185" s="20"/>
-      <c r="AD185" s="21"/>
+      <c r="AD185" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
@@ -12640,7 +12633,7 @@
         <v>4.0</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>72</v>
@@ -12649,11 +12642,9 @@
         <v>54</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H186" s="7"/>
       <c r="I186" s="13" t="b">
         <v>0</v>
       </c>
@@ -12683,38 +12674,20 @@
       <c r="W186" s="8"/>
       <c r="X186" s="9"/>
       <c r="Y186" s="9"/>
-      <c r="Z186" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA186" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z186" s="8"/>
+      <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
       <c r="AC186" s="20"/>
-      <c r="AD186" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="AD186" s="21"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
-      <c r="B187" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="C187" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D187" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G187" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="12"/>
       <c r="H187" s="7"/>
       <c r="I187" s="13" t="b">
         <v>0</v>
@@ -12753,12 +12726,24 @@
     </row>
     <row r="188">
       <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="12"/>
+      <c r="B188" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="C188" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H188" s="7"/>
       <c r="I188" s="13" t="b">
         <v>0</v>
@@ -12803,8 +12788,8 @@
       <c r="C189" s="2">
         <v>4.0</v>
       </c>
-      <c r="D189" s="10" t="s">
-        <v>272</v>
+      <c r="D189" s="16" t="s">
+        <v>273</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>72</v>
@@ -12859,8 +12844,8 @@
       <c r="C190" s="2">
         <v>4.0</v>
       </c>
-      <c r="D190" s="16" t="s">
-        <v>273</v>
+      <c r="D190" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>72</v>
@@ -12915,8 +12900,8 @@
       <c r="C191" s="2">
         <v>4.0</v>
       </c>
-      <c r="D191" s="10" t="s">
-        <v>274</v>
+      <c r="D191" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>72</v>
@@ -12972,7 +12957,7 @@
         <v>4.0</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>72</v>
@@ -13028,7 +13013,7 @@
         <v>4.0</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>72</v>
@@ -13083,8 +13068,8 @@
       <c r="C194" s="2">
         <v>4.0</v>
       </c>
-      <c r="D194" s="16" t="s">
-        <v>277</v>
+      <c r="D194" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>72</v>
@@ -13140,7 +13125,7 @@
         <v>4.0</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>72</v>
@@ -13196,7 +13181,7 @@
         <v>4.0</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>72</v>
@@ -13245,24 +13230,12 @@
     </row>
     <row r="197">
       <c r="A197" s="1"/>
-      <c r="B197" s="2">
-        <v>2018.0</v>
-      </c>
-      <c r="C197" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D197" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G197" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="12"/>
       <c r="H197" s="7"/>
       <c r="I197" s="13" t="b">
         <v>0</v>
@@ -13388,13 +13361,24 @@
       <c r="AD199" s="21"/>
     </row>
     <row r="200">
-      <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="12"/>
+      <c r="A200" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C200" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="D200" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G200" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="H200" s="7"/>
       <c r="I200" s="13" t="b">
         <v>0</v>
@@ -13435,22 +13419,24 @@
       <c r="A201" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C201" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="D201" s="28" t="s">
-        <v>282</v>
+      <c r="C201" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="D201" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H201" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I201" s="13" t="b">
         <v>0</v>
       </c>
@@ -13480,21 +13466,27 @@
       <c r="W201" s="8"/>
       <c r="X201" s="9"/>
       <c r="Y201" s="9"/>
-      <c r="Z201" s="8"/>
-      <c r="AA201" s="9"/>
+      <c r="Z201" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA201" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="AB201" s="9"/>
       <c r="AC201" s="20"/>
-      <c r="AD201" s="21"/>
+      <c r="AD201" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C202" s="27">
+      <c r="C202" s="26">
         <v>6.0</v>
       </c>
-      <c r="D202" s="28" t="s">
-        <v>283</v>
+      <c r="D202" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>67</v>
@@ -13553,14 +13545,14 @@
       <c r="A203" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C203" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="D203" s="28" t="s">
-        <v>284</v>
+      <c r="C203" s="26">
+        <v>542.0</v>
+      </c>
+      <c r="D203" s="27" t="s">
+        <v>285</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>54</v>
@@ -13607,20 +13599,22 @@
         <v>56</v>
       </c>
       <c r="AB203" s="9"/>
-      <c r="AC203" s="20"/>
+      <c r="AC203" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="AD203" s="7" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C204" s="27">
+      <c r="C204" s="26">
         <v>542.0</v>
       </c>
-      <c r="D204" s="28" t="s">
-        <v>285</v>
+      <c r="D204" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>69</v>
@@ -13670,9 +13664,7 @@
         <v>56</v>
       </c>
       <c r="AB204" s="9"/>
-      <c r="AC204" s="6" t="s">
-        <v>286</v>
-      </c>
+      <c r="AC204" s="20"/>
       <c r="AD204" s="7" t="s">
         <v>65</v>
       </c>
@@ -13681,11 +13673,11 @@
       <c r="A205" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C205" s="27">
+      <c r="C205" s="26">
         <v>542.0</v>
       </c>
-      <c r="D205" s="28" t="s">
-        <v>287</v>
+      <c r="D205" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>69</v>
@@ -13737,18 +13729,18 @@
       <c r="AB205" s="9"/>
       <c r="AC205" s="20"/>
       <c r="AD205" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C206" s="27">
+      <c r="C206" s="26">
         <v>542.0</v>
       </c>
-      <c r="D206" s="28" t="s">
-        <v>288</v>
+      <c r="D206" s="27" t="s">
+        <v>289</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>69</v>
@@ -13760,7 +13752,7 @@
         <v>55</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I206" s="13" t="b">
         <v>0</v>
@@ -13768,8 +13760,8 @@
       <c r="J206" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K206" s="14" t="b">
-        <v>0</v>
+      <c r="K206" s="17" t="b">
+        <v>1</v>
       </c>
       <c r="L206" s="15" t="b">
         <v>0</v>
@@ -13777,14 +13769,22 @@
       <c r="M206" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="N206" s="15" t="b">
-        <v>0</v>
+      <c r="N206" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="O206" s="8"/>
-      <c r="P206" s="9"/>
-      <c r="Q206" s="9"/>
-      <c r="R206" s="8"/>
-      <c r="S206" s="8"/>
+      <c r="P206" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q206" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="R206" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S206" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="T206" s="9"/>
       <c r="U206" s="9"/>
       <c r="V206" s="8"/>
@@ -13807,14 +13807,14 @@
       <c r="A207" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C207" s="27">
-        <v>542.0</v>
-      </c>
-      <c r="D207" s="28" t="s">
-        <v>289</v>
+      <c r="C207" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>292</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>54</v>
@@ -13834,28 +13834,24 @@
       <c r="K207" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="L207" s="15" t="b">
+      <c r="L207" s="18" t="b">
         <v>0</v>
       </c>
       <c r="M207" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="N207" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O207" s="8"/>
+      <c r="N207" s="15"/>
+      <c r="O207" s="28" t="s">
+        <v>293</v>
+      </c>
       <c r="P207" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q207" s="7" t="s">
-        <v>290</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="Q207" s="9"/>
       <c r="R207" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="S207" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="S207" s="8"/>
       <c r="T207" s="9"/>
       <c r="U207" s="9"/>
       <c r="V207" s="8"/>
@@ -13878,11 +13874,11 @@
       <c r="A208" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C208" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D208" s="28" t="s">
-        <v>292</v>
+      <c r="C208" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="D208" s="27" t="s">
+        <v>294</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>72</v>
@@ -13894,7 +13890,7 @@
         <v>55</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I208" s="13" t="b">
         <v>0</v>
@@ -13902,26 +13898,22 @@
       <c r="J208" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K208" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" s="18" t="b">
+      <c r="K208" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="15" t="b">
         <v>0</v>
       </c>
       <c r="M208" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="N208" s="15"/>
-      <c r="O208" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="P208" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="N208" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O208" s="8"/>
+      <c r="P208" s="9"/>
       <c r="Q208" s="9"/>
-      <c r="R208" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="R208" s="8"/>
       <c r="S208" s="8"/>
       <c r="T208" s="9"/>
       <c r="U208" s="9"/>
@@ -13930,7 +13922,7 @@
       <c r="X208" s="9"/>
       <c r="Y208" s="9"/>
       <c r="Z208" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA208" s="7" t="s">
         <v>56</v>
@@ -13938,21 +13930,21 @@
       <c r="AB208" s="9"/>
       <c r="AC208" s="20"/>
       <c r="AD208" s="7" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C209" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="D209" s="28" t="s">
-        <v>294</v>
+      <c r="C209" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>295</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>54</v>
@@ -13993,7 +13985,7 @@
       <c r="X209" s="9"/>
       <c r="Y209" s="9"/>
       <c r="Z209" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA209" s="7" t="s">
         <v>56</v>
@@ -14001,18 +13993,18 @@
       <c r="AB209" s="9"/>
       <c r="AC209" s="20"/>
       <c r="AD209" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C210" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="D210" s="28" t="s">
-        <v>295</v>
+      <c r="C210" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="D210" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>53</v>
@@ -14024,7 +14016,7 @@
         <v>55</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I210" s="13" t="b">
         <v>0</v>
@@ -14032,11 +14024,11 @@
       <c r="J210" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K210" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="15" t="b">
-        <v>0</v>
+      <c r="K210" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="M210" s="15" t="b">
         <v>0</v>
@@ -14045,7 +14037,9 @@
         <v>0</v>
       </c>
       <c r="O210" s="8"/>
-      <c r="P210" s="9"/>
+      <c r="P210" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="Q210" s="9"/>
       <c r="R210" s="8"/>
       <c r="S210" s="8"/>
@@ -14064,21 +14058,21 @@
       <c r="AB210" s="9"/>
       <c r="AC210" s="20"/>
       <c r="AD210" s="7" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C211" s="27">
+      <c r="C211" s="26">
         <v>3.0</v>
       </c>
-      <c r="D211" s="28" t="s">
-        <v>296</v>
+      <c r="D211" s="27" t="s">
+        <v>297</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>54</v>
@@ -14107,12 +14101,18 @@
       <c r="N211" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="O211" s="8"/>
+      <c r="O211" s="6" t="s">
+        <v>298</v>
+      </c>
       <c r="P211" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q211" s="9"/>
-      <c r="R211" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="Q211" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="R211" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="S211" s="8"/>
       <c r="T211" s="9"/>
       <c r="U211" s="9"/>
@@ -14129,42 +14129,40 @@
       <c r="AB211" s="9"/>
       <c r="AC211" s="20"/>
       <c r="AD211" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C212" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="D212" s="28" t="s">
-        <v>297</v>
+      <c r="C212" s="26">
+        <v>544.0</v>
+      </c>
+      <c r="D212" s="27" t="s">
+        <v>300</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G212" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H212" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H212" s="7"/>
       <c r="I212" s="13" t="b">
         <v>0</v>
       </c>
       <c r="J212" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="K212" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" s="18" t="b">
-        <v>1</v>
+      <c r="K212" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="M212" s="15" t="b">
         <v>0</v>
@@ -14172,18 +14170,10 @@
       <c r="N212" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="O212" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="P212" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q212" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="R212" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="O212" s="8"/>
+      <c r="P212" s="9"/>
+      <c r="Q212" s="9"/>
+      <c r="R212" s="8"/>
       <c r="S212" s="8"/>
       <c r="T212" s="9"/>
       <c r="U212" s="9"/>
@@ -14191,37 +14181,20 @@
       <c r="W212" s="8"/>
       <c r="X212" s="9"/>
       <c r="Y212" s="9"/>
-      <c r="Z212" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA212" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="Z212" s="8"/>
+      <c r="AA212" s="9"/>
       <c r="AB212" s="9"/>
       <c r="AC212" s="20"/>
-      <c r="AD212" s="7" t="s">
-        <v>101</v>
-      </c>
+      <c r="AD212" s="21"/>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C213" s="27">
-        <v>544.0</v>
-      </c>
-      <c r="D213" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G213" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="12"/>
       <c r="H213" s="7"/>
       <c r="I213" s="13" t="b">
         <v>0</v>
@@ -14478,50 +14451,6 @@
       <c r="AC218" s="20"/>
       <c r="AD218" s="21"/>
     </row>
-    <row r="219">
-      <c r="A219" s="1"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="12"/>
-      <c r="H219" s="7"/>
-      <c r="I219" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K219" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M219" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N219" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O219" s="8"/>
-      <c r="P219" s="9"/>
-      <c r="Q219" s="9"/>
-      <c r="R219" s="8"/>
-      <c r="S219" s="8"/>
-      <c r="T219" s="9"/>
-      <c r="U219" s="9"/>
-      <c r="V219" s="8"/>
-      <c r="W219" s="8"/>
-      <c r="X219" s="9"/>
-      <c r="Y219" s="9"/>
-      <c r="Z219" s="8"/>
-      <c r="AA219" s="9"/>
-      <c r="AB219" s="9"/>
-      <c r="AC219" s="20"/>
-      <c r="AD219" s="21"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H2:K2"/>
@@ -14534,31 +14463,31 @@
     <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X4:X219">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X4:X218">
       <formula1>"reference method,reference other study,reasoning,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F219">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F218">
       <formula1>"SP,FB,BS,AL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H219 Z4:AA219">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H218 Z4:AA218">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T4:T219">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T4:T218">
       <formula1>"case-wise deletion,list-wise deletion,other deletion,imputation,additional simulations,method replacement,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R219 V4:V219">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R218 V4:V218">
       <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G219">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G218">
       <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E219">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E218">
       <formula1>"PM,SiM,JASA,RSM,EM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P4:P219">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P4:P218">
       <formula1>"not quantified,missing proportion (total),missing proportion (per method),missing proportion (per method/condition),max missing proportion (per method),max missing proportion (per method/condition),other,zero missingness"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD4:AD219">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD4:AD218">
       <formula1>"high,medium,low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14676,7 +14605,7 @@
     <hyperlink r:id="rId111" ref="D121"/>
     <hyperlink r:id="rId112" ref="D122"/>
     <hyperlink r:id="rId113" ref="D123"/>
-    <hyperlink r:id="rId114" ref="D124"/>
+    <hyperlink r:id="rId114" ref="D125"/>
     <hyperlink r:id="rId115" ref="D126"/>
     <hyperlink r:id="rId116" ref="D127"/>
     <hyperlink r:id="rId117" ref="D128"/>
@@ -14686,14 +14615,14 @@
     <hyperlink r:id="rId121" ref="D132"/>
     <hyperlink r:id="rId122" ref="D133"/>
     <hyperlink r:id="rId123" ref="D134"/>
-    <hyperlink r:id="rId124" ref="D135"/>
+    <hyperlink r:id="rId124" ref="D136"/>
     <hyperlink r:id="rId125" ref="D137"/>
     <hyperlink r:id="rId126" ref="D138"/>
     <hyperlink r:id="rId127" ref="D139"/>
     <hyperlink r:id="rId128" ref="D140"/>
     <hyperlink r:id="rId129" ref="D141"/>
     <hyperlink r:id="rId130" ref="D142"/>
-    <hyperlink r:id="rId131" ref="D143"/>
+    <hyperlink r:id="rId131" ref="D144"/>
     <hyperlink r:id="rId132" ref="D145"/>
     <hyperlink r:id="rId133" ref="D146"/>
     <hyperlink r:id="rId134" ref="D147"/>
@@ -14702,7 +14631,7 @@
     <hyperlink r:id="rId137" ref="D150"/>
     <hyperlink r:id="rId138" ref="D151"/>
     <hyperlink r:id="rId139" ref="D152"/>
-    <hyperlink r:id="rId140" ref="D153"/>
+    <hyperlink r:id="rId140" ref="D154"/>
     <hyperlink r:id="rId141" ref="D155"/>
     <hyperlink r:id="rId142" ref="D156"/>
     <hyperlink r:id="rId143" ref="D157"/>
@@ -14713,18 +14642,18 @@
     <hyperlink r:id="rId148" ref="D162"/>
     <hyperlink r:id="rId149" ref="D163"/>
     <hyperlink r:id="rId150" ref="D164"/>
-    <hyperlink r:id="rId151" ref="D165"/>
+    <hyperlink r:id="rId151" ref="D166"/>
     <hyperlink r:id="rId152" ref="D167"/>
     <hyperlink r:id="rId153" ref="D168"/>
     <hyperlink r:id="rId154" ref="D169"/>
     <hyperlink r:id="rId155" ref="D170"/>
     <hyperlink r:id="rId156" ref="D171"/>
-    <hyperlink r:id="rId157" ref="D172"/>
+    <hyperlink r:id="rId157" ref="D173"/>
     <hyperlink r:id="rId158" ref="D174"/>
     <hyperlink r:id="rId159" ref="D175"/>
     <hyperlink r:id="rId160" ref="D176"/>
     <hyperlink r:id="rId161" ref="D177"/>
-    <hyperlink r:id="rId162" ref="D178"/>
+    <hyperlink r:id="rId162" ref="D179"/>
     <hyperlink r:id="rId163" ref="D180"/>
     <hyperlink r:id="rId164" ref="D181"/>
     <hyperlink r:id="rId165" ref="D182"/>
@@ -14732,7 +14661,7 @@
     <hyperlink r:id="rId167" ref="D184"/>
     <hyperlink r:id="rId168" ref="D185"/>
     <hyperlink r:id="rId169" ref="D186"/>
-    <hyperlink r:id="rId170" ref="D187"/>
+    <hyperlink r:id="rId170" ref="D188"/>
     <hyperlink r:id="rId171" ref="D189"/>
     <hyperlink r:id="rId172" ref="D190"/>
     <hyperlink r:id="rId173" ref="D191"/>
@@ -14741,7 +14670,7 @@
     <hyperlink r:id="rId176" ref="D194"/>
     <hyperlink r:id="rId177" ref="D195"/>
     <hyperlink r:id="rId178" ref="D196"/>
-    <hyperlink r:id="rId179" ref="D197"/>
+    <hyperlink r:id="rId179" ref="D200"/>
     <hyperlink r:id="rId180" ref="D201"/>
     <hyperlink r:id="rId181" ref="D202"/>
     <hyperlink r:id="rId182" ref="D203"/>
@@ -14754,8 +14683,7 @@
     <hyperlink r:id="rId189" ref="D210"/>
     <hyperlink r:id="rId190" ref="D211"/>
     <hyperlink r:id="rId191" ref="D212"/>
-    <hyperlink r:id="rId192" ref="D213"/>
   </hyperlinks>
-  <drawing r:id="rId193"/>
+  <drawing r:id="rId192"/>
 </worksheet>
 </file>